--- a/BaseFiles/B_Availability_0.xlsx
+++ b/BaseFiles/B_Availability_0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hostbv833-my.sharepoint.com/personal/g_vandoorn_bright-renewables_com/Documents/Documenten/Python Scripts/BURP/BaseFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_F25DC773A252ABDACC10483F519C5AEC5ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{291DC2D7-CF79-4B31-9682-28F47B56FE0A}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_F25DC773A252ABDACC10483F519C5AEC5ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E0686B3-D56A-481F-B793-E8E85945816B}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -487,7 +487,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
